--- a/Chat_Bot/library/Futminna_Library.xlsx
+++ b/Chat_Bot/library/Futminna_Library.xlsx
@@ -2569,9 +2569,13 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>daniel</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2789,9 +2793,13 @@
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>daniel</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2815,9 +2823,13 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>daniel</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2919,9 +2931,13 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Gbenga</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
